--- a/plots.xlsx
+++ b/plots.xlsx
@@ -56,15 +56,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -97,10 +109,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -150,16 +182,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1303,15 +1339,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1333,15 +1369,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1363,15 +1399,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1393,15 +1429,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1423,15 +1459,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1778,7 +1814,7 @@
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1792,10 +1828,10 @@
       <c r="A1">
         <v>198</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1806,7 +1842,7 @@
       <c r="C2" s="1">
         <v>0.7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>680</v>
       </c>
     </row>
@@ -1817,7 +1853,7 @@
       <c r="C3" s="1">
         <v>0.3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>1550</v>
       </c>
     </row>
@@ -1828,7 +1864,7 @@
       <c r="C4" s="1">
         <v>0.5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>2433</v>
       </c>
     </row>
@@ -1839,7 +1875,7 @@
       <c r="C5" s="1">
         <v>0.9</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>2846</v>
       </c>
     </row>
@@ -1847,10 +1883,10 @@
       <c r="A6">
         <v>1885</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>4055</v>
       </c>
     </row>
@@ -1868,25 +1904,55 @@
       <c r="A9">
         <v>250</v>
       </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4055</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
         <v>334</v>
       </c>
+      <c r="C10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1550</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
         <v>1355</v>
       </c>
+      <c r="C11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2433</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
         <v>297</v>
       </c>
+      <c r="C12" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D12" s="8">
+        <v>680</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
         <v>295</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2846</v>
       </c>
     </row>
     <row r="14" spans="1:4">
